--- a/data/trans_bre/POLIPATOLOGIA_2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.03911869742738</v>
+        <v>7.768464230363429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.35579654966416</v>
+        <v>15.54752151729905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.72838258158362</v>
+        <v>12.76125406228242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.346748602694005</v>
+        <v>8.384461732706217</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2329818904592375</v>
+        <v>0.2268367328767274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5978116342492265</v>
+        <v>0.5913677715433417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4540756366259309</v>
+        <v>0.4684533222546263</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1865265064493448</v>
+        <v>0.1992485570950345</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.02379504589251</v>
+        <v>17.72132003093528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.54638071255684</v>
+        <v>23.74682287768506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.69670816196943</v>
+        <v>20.59452233416494</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.8698567338572</v>
+        <v>19.92342509304617</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6320441526576474</v>
+        <v>0.6300999005329749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.062237501096539</v>
+        <v>1.084989570595599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.868034697195217</v>
+        <v>0.8737302687348011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5448150732245405</v>
+        <v>0.5609157483765275</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>10.31908336075612</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14.02293957215096</v>
+        <v>14.02293957215095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6703639800291697</v>
@@ -749,7 +749,7 @@
         <v>0.4326944993848262</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4541040281460933</v>
+        <v>0.4541040281460931</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.618428808805431</v>
+        <v>9.37694103942893</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.201316586957491</v>
+        <v>9.378703096701059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.275826188704555</v>
+        <v>5.998331621475817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.20659608390966</v>
+        <v>9.953747897451397</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4548164897361373</v>
+        <v>0.429542253910207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3395542048830044</v>
+        <v>0.3390831086064413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2454748430767481</v>
+        <v>0.2276139775450211</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2977245435796222</v>
+        <v>0.3081245087851157</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.12084746567939</v>
+        <v>16.8937848126827</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.90945720371879</v>
+        <v>17.48488557446963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.62454395589471</v>
+        <v>14.46992491062072</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.53166716284202</v>
+        <v>18.02874377450375</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9524214990167654</v>
+        <v>0.9200516590137718</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7836057086783382</v>
+        <v>0.7479914990380635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6840027348588703</v>
+        <v>0.6625435913258702</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6644918532981205</v>
+        <v>0.6516393367835672</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.729002945720939</v>
+        <v>7.568202431292286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.237392786601852</v>
+        <v>4.830506278889207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.929389902257086</v>
+        <v>5.58198375053929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.09644720635959</v>
+        <v>9.923340499241212</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4812847097887269</v>
+        <v>0.4740909140418156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1714230888939317</v>
+        <v>0.1669198994462567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2058469111695518</v>
+        <v>0.2159850797674912</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3205490100447898</v>
+        <v>0.3231022136428294</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.50698476202403</v>
+        <v>14.44921652037938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.83460387440021</v>
+        <v>13.61259918204823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.24698087280867</v>
+        <v>15.11254317710385</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.73272492429046</v>
+        <v>17.84606848294416</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.136167084820281</v>
+        <v>1.121155761511877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5447258569976891</v>
+        <v>0.5483732583887888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6877589840911525</v>
+        <v>0.7345188427547382</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6689262361148093</v>
+        <v>0.6661168169963668</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.3533440159707327</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3712842000584284</v>
+        <v>0.3712842000584283</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.440916992115618</v>
+        <v>5.42028124140199</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.625668579862561</v>
+        <v>6.74602340510255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.28250848594874</v>
+        <v>2.34896437294476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.013030069449622</v>
+        <v>8.259750358482236</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2887058037367097</v>
+        <v>0.2861430979367546</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3076810754730687</v>
+        <v>0.2991677616202946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09053275314220882</v>
+        <v>0.09479507415750517</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2131689657427508</v>
+        <v>0.2246896679585315</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.28018907931182</v>
+        <v>17.11558594068917</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.13331649486832</v>
+        <v>18.41597770861194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.7455941671713</v>
+        <v>13.11181753518762</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.22105138190032</v>
+        <v>17.33615053081817</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.256849379721209</v>
+        <v>1.243403290635356</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.119308699993257</v>
+        <v>1.091995311722213</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6947070108638803</v>
+        <v>0.6692517650952621</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5410585870558573</v>
+        <v>0.5591887607779485</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.5122014303301161</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4297506198080184</v>
+        <v>0.4297506198080183</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.67875382179327</v>
+        <v>11.69793269272555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.08346404572985</v>
+        <v>11.89335092788337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.07811940155824</v>
+        <v>9.726854429424343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.60409921155506</v>
+        <v>11.76019120409575</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5707055490620343</v>
+        <v>0.5637408908173195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4758468536962612</v>
+        <v>0.463645117140653</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4067685781688102</v>
+        <v>0.389184880426606</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3468900595733683</v>
+        <v>0.3492182396491085</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.99474999098835</v>
+        <v>15.95067509079539</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.35191034292247</v>
+        <v>16.49126404646445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.47564013634159</v>
+        <v>14.41183215945573</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.00160146668251</v>
+        <v>15.97800727828186</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8677623691982538</v>
+        <v>0.8561107209081794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.708827642192791</v>
+        <v>0.7049596903936121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6399872811127081</v>
+        <v>0.6333645656139273</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5173650516801495</v>
+        <v>0.5126283332188482</v>
       </c>
     </row>
     <row r="19">
